--- a/3.3/売上報告書.xlsx
+++ b/3.3/売上報告書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katsuhisa.kitano/PycharmProjects/aidemy-python-excel/3.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE731DF-D016-CA46-B6E4-7FAE6D597F28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1CC5C2-A067-D141-ABFF-D9DCBA351133}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="1300" windowWidth="16340" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="売上データ" sheetId="1" r:id="rId1"/>
